--- a/public/assets/result/Urifa_4.xlsx
+++ b/public/assets/result/Urifa_4.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>REPUBLIK INDONESIA</t>
   </si>
@@ -148,13 +148,10 @@
     <t>PML</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>WAHYU RAZI INDRAWAN</t>
   </si>
   <si>
-    <t>SUMIATI</t>
+    <t>URIFA</t>
   </si>
 </sst>
 </file>
@@ -907,16 +904,16 @@
         <v>24</v>
       </c>
       <c r="I13" s="5">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J13" s="5">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="K13" s="5">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="L13" s="5">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M13" s="5">
         <v>2</v>
@@ -944,16 +941,16 @@
         <v>25</v>
       </c>
       <c r="I14" s="5">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="J14" s="5">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="K14" s="5">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="L14" s="5">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="M14" s="5">
         <v>2</v>
@@ -981,16 +978,16 @@
         <v>24</v>
       </c>
       <c r="I15" s="5">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="J15" s="5">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="K15" s="5">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="L15" s="5">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="M15" s="5">
         <v>2</v>
@@ -1018,16 +1015,16 @@
         <v>25</v>
       </c>
       <c r="I16" s="5">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="J16" s="5">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="K16" s="5">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="L16" s="5">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="M16" s="5">
         <v>2</v>
@@ -1092,16 +1089,16 @@
         <v>29</v>
       </c>
       <c r="I18" s="5">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="J18" s="5">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="K18" s="5">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="L18" s="5">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="M18" s="5">
         <v>2</v>
@@ -1129,16 +1126,16 @@
         <v>24</v>
       </c>
       <c r="I19" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J19" s="5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K19" s="5">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L19" s="5">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M19" s="5">
         <v>2</v>
@@ -1166,16 +1163,16 @@
         <v>29</v>
       </c>
       <c r="I20" s="5">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="J20" s="5">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="K20" s="5">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="L20" s="5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M20" s="5">
         <v>2</v>
@@ -1203,16 +1200,16 @@
         <v>25</v>
       </c>
       <c r="I21" s="5">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="J21" s="5">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="K21" s="5">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="L21" s="5">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="M21" s="5">
         <v>2</v>
@@ -1277,16 +1274,16 @@
         <v>29</v>
       </c>
       <c r="I23" s="5">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J23" s="5">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K23" s="5">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="L23" s="5">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M23" s="5">
         <v>2</v>
@@ -1314,16 +1311,16 @@
         <v>25</v>
       </c>
       <c r="I24" s="5">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="J24" s="5">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="K24" s="5">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="L24" s="5">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="M24" s="5">
         <v>2</v>
@@ -1412,9 +1409,7 @@
       <c r="N30" s="1"/>
     </row>
     <row r="31" spans="1:14">
-      <c r="K31" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="N31" s="1"/>
     </row>
@@ -1430,10 +1425,10 @@
     </row>
     <row r="34" spans="1:14">
       <c r="D34" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K34" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="L34" s="4"/>
       <c r="N34" s="1"/>
